--- a/utils/Tools/excel/21_condition_条件.xlsx
+++ b/utils/Tools/excel/21_condition_条件.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24195" windowHeight="9165"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,31 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+0表示无论是否接取任务，都要提前记录数据，使得任务接取时可以根据记录的历史数据直接完成。
+1表示接任务后，从当前状态或0开始计数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YN12:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可指定多个参数目标，同一类型长度固定，格式[操作符，目标值]
+如果目标值需要满足指定某个区间或某个id集，程序特殊处理
 操作符：
 -2小于
 -1小于等于
@@ -60,17 +85,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YN12:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认为1,即达成条件。累积计数型任务目标值&gt;=1</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>条件id</t>
   </si>
   <si>
     <t>条件类型</t>
+  </si>
+  <si>
+    <t>任务数据类型</t>
   </si>
   <si>
     <t>任务目标参数</t>
@@ -79,16 +129,13 @@
     <t>目标值</t>
   </si>
   <si>
-    <t>可指定多个参数目标，同一类型长度固定，格式[操作符，目标值]</t>
-  </si>
-  <si>
-    <t>默认为1,即达成条件。累积计数型任务目标值&gt;=1</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>conditionType</t>
+  </si>
+  <si>
+    <t>sourceType</t>
   </si>
   <si>
     <t>conditionParams</t>
@@ -1271,23 +1318,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="71.375" customWidth="1"/>
-    <col min="4" max="4" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="71.375" customWidth="1"/>
+    <col min="5" max="5" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,106 +1348,114 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
